--- a/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -216,10 +216,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,7 +277,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,7 +305,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E32"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,7 +383,7 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -427,7 +431,7 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -459,7 +463,7 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -491,7 +495,7 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -523,7 +527,7 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -555,7 +559,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -587,7 +591,7 @@
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -619,7 +623,7 @@
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -651,7 +655,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -683,7 +687,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -715,7 +719,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -747,7 +751,7 @@
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -779,7 +783,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -811,7 +815,7 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -843,7 +847,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -875,7 +879,7 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -907,7 +911,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -939,7 +943,7 @@
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -971,7 +975,7 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1003,7 +1007,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1035,7 +1039,7 @@
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1067,7 +1071,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1099,7 +1103,7 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1131,7 +1135,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1163,7 +1167,7 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1195,7 +1199,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1227,7 +1231,7 @@
       <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1259,7 +1263,7 @@
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -1291,7 +1295,7 @@
       <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -1323,7 +1327,7 @@
       <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -1355,7 +1359,7 @@
       <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="49">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -176,8 +173,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -264,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +280,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,7 +307,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H32"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,11 +388,11 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -417,7 +419,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -426,7 +428,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -434,11 +436,11 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +451,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -458,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -466,11 +468,11 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -490,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -498,11 +500,11 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -522,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -530,11 +532,11 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -554,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -562,11 +564,11 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -586,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -594,11 +596,11 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -618,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -626,11 +628,11 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -650,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -658,11 +660,11 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -682,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -690,11 +692,11 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -714,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -722,11 +724,11 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -746,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -754,11 +756,11 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -778,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -786,11 +788,11 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -810,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -818,11 +820,11 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -842,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -850,11 +852,11 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -874,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -882,11 +884,11 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -906,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -914,11 +916,11 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -938,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
@@ -946,11 +948,11 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -970,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
@@ -978,11 +980,11 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -1002,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>14</v>
@@ -1010,11 +1012,11 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1034,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>14</v>
@@ -1042,11 +1044,11 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1066,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1074,11 +1076,11 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -1098,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
@@ -1106,11 +1108,11 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1130,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>14</v>
@@ -1138,11 +1140,11 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -1162,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>14</v>
@@ -1170,11 +1172,11 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1194,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1202,23 +1204,23 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1234,23 +1236,23 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
+      <c r="I28" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1266,22 +1268,22 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
+      <c r="I29" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
@@ -1290,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
@@ -1298,22 +1300,22 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>16</v>
+      <c r="I30" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
@@ -1322,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -1330,22 +1332,22 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>16</v>
+      <c r="I31" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
@@ -1354,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
@@ -1362,11 +1364,11 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>16</v>
+      <c r="I32" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">01.16.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -307,12 +307,14 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I32"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
+++ b/s1cDNASample/s1CDNASample_BrownH_01.16.20_temp.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">01.16.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -307,7 +307,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G32"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,7 +390,8 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -438,7 +439,8 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -470,7 +472,8 @@
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -502,7 +505,8 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -534,7 +538,8 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -566,7 +571,8 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -598,7 +604,8 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -630,7 +637,8 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -662,7 +670,8 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -694,7 +703,8 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -726,7 +736,8 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -758,7 +769,8 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -790,7 +802,8 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -822,7 +835,8 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="b">
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -854,7 +868,8 @@
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -886,7 +901,8 @@
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -918,7 +934,8 @@
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -950,7 +967,8 @@
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -982,7 +1000,8 @@
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="b">
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1014,7 +1033,8 @@
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="b">
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1046,7 +1066,8 @@
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5" t="b">
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1078,7 +1099,8 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="b">
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1110,7 +1132,8 @@
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="b">
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1142,7 +1165,8 @@
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="5" t="b">
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1174,7 +1198,8 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="b">
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1206,7 +1231,8 @@
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="b">
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1238,7 +1264,8 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="5" t="b">
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1270,7 +1297,8 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="5" t="b">
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1302,7 +1330,8 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="5" t="b">
+      <c r="I30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1334,7 +1363,8 @@
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5" t="b">
+      <c r="I31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1366,7 +1396,8 @@
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="5" t="b">
+      <c r="I32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
